--- a/biology/Zoologie/Cantharis/Cantharis.xlsx
+++ b/biology/Zoologie/Cantharis/Cantharis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cantharis est un genre d’insectes coléoptères de la famille des Cantharidae.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous-genre Cantharis
-Cantharis allosensis Pic, 1924
+          <t>Sous-genre Cantharis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cantharis allosensis Pic, 1924
 Cantharis annularis Menetriez, 1836
 Cantharis antennalis (Marseul, 1864)
 Cantharis ariasi (Mulsant, 1862)
@@ -587,9 +604,43 @@
 Cantharis torretasoi Wittmer, 1935
 Cantharis tristis Fabricius, 1797
 Cantharis versicolor (Baudi, 1871)
-Cantharis xanthoporpa Kiesenwetter, 1860
-Sous-genre Cyrtomoptila
-Cantharis gemina Dahlgren, 1974
+Cantharis xanthoporpa Kiesenwetter, 1860</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cantharis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-genre Cyrtomoptila</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cantharis gemina Dahlgren, 1974
 Cantharis lateralis Linnaeus, 1758
 Cantharis pagana Rosenhauer, 1847</t>
         </is>
